--- a/ysyx学习记录.xlsx
+++ b/ysyx学习记录.xlsx
@@ -43,10 +43,10 @@
     <t>1.了解ysyx 2.完成ysyx问卷填写</t>
   </si>
   <si>
-    <t>2h</t>
-  </si>
-  <si>
-    <t>完成问卷填写，阅读了如何智慧的提问并且写读后感</t>
+    <t>6h</t>
+  </si>
+  <si>
+    <t>完成问卷填写，阅读了如何智慧的提问并且写读后感，安装ubuntu虚拟机，完成PA0</t>
   </si>
   <si>
     <t>无</t>
@@ -60,10 +60,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -77,49 +77,36 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,16 +127,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,6 +181,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -171,55 +203,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,187 +234,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,60 +437,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -525,153 +475,203 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1002,7 +1002,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelRow="1" outlineLevelCol="6"/>
@@ -1011,9 +1011,9 @@
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="27.5675675675676" customWidth="1"/>
     <col min="4" max="4" width="8.78378378378378" customWidth="1"/>
-    <col min="5" max="5" width="22.3693693693694" customWidth="1"/>
+    <col min="5" max="5" width="75.4594594594595" customWidth="1"/>
     <col min="6" max="6" width="16.8378378378378" customWidth="1"/>
-    <col min="7" max="7" width="22.3873873873874" customWidth="1"/>
+    <col min="7" max="7" width="19.5765765765766" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:7">

--- a/ysyx学习记录.xlsx
+++ b/ysyx学习记录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>周数</t>
   </si>
@@ -31,7 +31,7 @@
     <t>学习内容</t>
   </si>
   <si>
-    <t>困难以及解决方式</t>
+    <t>问题以及解决方式</t>
   </si>
   <si>
     <t>感想</t>
@@ -53,6 +53,36 @@
   </si>
   <si>
     <t>从今天开始学习ysyx!!</t>
+  </si>
+  <si>
+    <t>复习C语言</t>
+  </si>
+  <si>
+    <t>part0-part8</t>
+  </si>
+  <si>
+    <t>在part4中需要安装valgrind，本人OS为manjaro，源码安装的valgrind在运行上出现了问题，初步怀疑是glibc版本过新以至于不兼容，尝试过降级glibc，结果以及不能使用，在上面花费了大量时间，故先告一段落。后续的实验都是在ubuntu虚拟机上完成，结果都非常顺利。</t>
+  </si>
+  <si>
+    <t>对arch系linux排错不够熟练，希望之后解决valgrind的bug</t>
+  </si>
+  <si>
+    <t>part9-part17</t>
+  </si>
+  <si>
+    <t>part17中的附加题经常出现段错误，调试很久之后才发现是全局变量和局部变量混淆导致的</t>
+  </si>
+  <si>
+    <t>很多bug都是不经意的小错误产生的，之后需要加强代码的规范</t>
+  </si>
+  <si>
+    <t>part18、part28、part30、part32</t>
+  </si>
+  <si>
+    <t>在part32编译文件中，链接出现问题，问题表现为：如果链接静态库，程序会报错函数未定义，但是链接动态库则不会出现问题，具体原理目前还不清楚。</t>
+  </si>
+  <si>
+    <t>对程序编译方面了解还不够透彻，对makefile高阶的用法也不够熟悉</t>
   </si>
 </sst>
 </file>
@@ -61,8 +91,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -75,17 +105,23 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -104,6 +140,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -113,7 +157,68 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,99 +232,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,181 +270,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,8 +461,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -476,6 +506,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -493,9 +532,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,164 +555,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -999,13 +1029,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="6.97297297297297" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
@@ -1062,6 +1092,66 @@
         <v>12</v>
       </c>
     </row>
+    <row r="3" customHeight="1" spans="2:7">
+      <c r="B3" s="1">
+        <v>45350</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="2:7">
+      <c r="B4" s="1">
+        <v>45351</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="2:7">
+      <c r="B5" s="1">
+        <v>45352</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/ysyx学习记录.xlsx
+++ b/ysyx学习记录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>周数</t>
   </si>
@@ -58,31 +58,79 @@
     <t>复习C语言</t>
   </si>
   <si>
-    <t>part0-part8</t>
-  </si>
-  <si>
-    <t>在part4中需要安装valgrind，本人OS为manjaro，源码安装的valgrind在运行上出现了问题，初步怀疑是glibc版本过新以至于不兼容，尝试过降级glibc，结果以及不能使用，在上面花费了大量时间，故先告一段落。后续的实验都是在ubuntu虚拟机上完成，结果都非常顺利。</t>
+    <t>ex0-ex8</t>
+  </si>
+  <si>
+    <t>在ex4中需要安装valgrind，本人OS为manjaro，源码安装的valgrind在运行上出现了问题，初步怀疑是glibc版本过新以至于不兼容，尝试过降级glibc，结果以及不能使用，在上面花费了大量时间，故先告一段落。后续的实验都是在ubuntu虚拟机上完成，结果都非常顺利。</t>
   </si>
   <si>
     <t>对arch系linux排错不够熟练，希望之后解决valgrind的bug</t>
   </si>
   <si>
-    <t>part9-part17</t>
-  </si>
-  <si>
-    <t>part17中的附加题经常出现段错误，调试很久之后才发现是全局变量和局部变量混淆导致的</t>
+    <t>ex9-ex17</t>
+  </si>
+  <si>
+    <t>ex17中的附加题经常出现段错误，调试很久之后才发现是全局变量和局部变量混淆导致的。变长附加题未完成。</t>
   </si>
   <si>
     <t>很多bug都是不经意的小错误产生的，之后需要加强代码的规范</t>
   </si>
   <si>
-    <t>part18、part28、part30、part32</t>
-  </si>
-  <si>
-    <t>在part32编译文件中，链接出现问题，问题表现为：如果链接静态库，程序会报错函数未定义，但是链接动态库则不会出现问题，具体原理目前还不清楚。</t>
+    <t>ex18、ex28、ex30、ex32</t>
+  </si>
+  <si>
+    <t>在ex32编译文件中，链接出现问题，问题表现为：如果链接静态库，程序会报错函数未定义，但是链接动态库则不会出现问题，具体原理目前还不清楚。(在第二天通过STFW和询问得知是静态库链接顺序出问题了)</t>
   </si>
   <si>
     <t>对程序编译方面了解还不够透彻，对makefile高阶的用法也不够熟悉</t>
+  </si>
+  <si>
+    <t>ex33、ex42</t>
+  </si>
+  <si>
+    <t>在ex33中花了很多时间在归并排序上，对归并排序不是很熟悉</t>
+  </si>
+  <si>
+    <t>好多段错误啊！！！</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>ex44</t>
+  </si>
+  <si>
+    <t>小小休息一下</t>
+  </si>
+  <si>
+    <t>第二周</t>
+  </si>
+  <si>
+    <t>复习C语言、计算机教育中缺失的一课</t>
+  </si>
+  <si>
+    <t>3h</t>
+  </si>
+  <si>
+    <t>ex17附加题、计算机教育中缺失的一课（1、2）</t>
+  </si>
+  <si>
+    <t>对shell脚本还不够熟悉，练习题的解决思路有些比较难想到</t>
+  </si>
+  <si>
+    <t>计算机教育中缺失的一课</t>
+  </si>
+  <si>
+    <t>4h</t>
+  </si>
+  <si>
+    <t>part2-part4</t>
+  </si>
+  <si>
+    <t>part4中对shell命令下的数据处理还不够熟悉，需要查看习题答疑才有思路</t>
+  </si>
+  <si>
+    <t>shell命令处理数据效率真高但是好难</t>
   </si>
 </sst>
 </file>
@@ -90,10 +138,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -113,13 +161,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,6 +174,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -141,6 +190,44 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
@@ -148,16 +235,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,6 +262,28 @@
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -178,78 +295,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,181 +318,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,6 +539,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -508,9 +571,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,26 +597,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,142 +608,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -705,9 +753,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
@@ -1029,20 +1080,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="6.97297297297297" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="27.5675675675676" customWidth="1"/>
     <col min="4" max="4" width="8.78378378378378" customWidth="1"/>
     <col min="5" max="5" width="75.4594594594595" customWidth="1"/>
-    <col min="6" max="6" width="16.8378378378378" customWidth="1"/>
+    <col min="6" max="6" width="37.3153153153153" customWidth="1"/>
     <col min="7" max="7" width="19.5765765765766" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1070,10 +1121,10 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:7">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>45349</v>
       </c>
       <c r="C2" t="s">
@@ -1092,8 +1143,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="2:7">
-      <c r="B3" s="1">
+    <row r="3" customHeight="1" spans="1:7">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2">
         <v>45350</v>
       </c>
       <c r="C3" t="s">
@@ -1112,8 +1164,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="2:7">
-      <c r="B4" s="1">
+    <row r="4" customHeight="1" spans="1:7">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2">
         <v>45351</v>
       </c>
       <c r="C4" t="s">
@@ -1132,8 +1185,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="2:7">
-      <c r="B5" s="1">
+    <row r="5" customHeight="1" spans="1:7">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2">
         <v>45352</v>
       </c>
       <c r="C5" t="s">
@@ -1152,7 +1206,92 @@
         <v>22</v>
       </c>
     </row>
+    <row r="6" customHeight="1" spans="1:7">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2">
+        <v>45353</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:7">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2">
+        <v>45354</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:6">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="2">
+        <v>45355</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="2:7">
+      <c r="B9" s="2">
+        <v>45356</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A7"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/ysyx学习记录.xlsx
+++ b/ysyx学习记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19334" windowHeight="7600"/>
+    <workbookView windowWidth="9918" windowHeight="7440"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
   <si>
     <t>周数</t>
   </si>
@@ -131,6 +131,18 @@
   </si>
   <si>
     <t>shell命令处理数据效率真高但是好难</t>
+  </si>
+  <si>
+    <t>计算机教育中缺失的一课、PA1</t>
+  </si>
+  <si>
+    <t>计算机教育中缺失的一课（5-7），PA1前三小结</t>
+  </si>
+  <si>
+    <t>刚上手nemu，阅读源代码着实痛苦，在解决直接按‘q’会报错的问题时，在理解代码上花了不少时间，好在最后解决了问题，现在知道main函数返回非0时会出现错误。</t>
+  </si>
+  <si>
+    <t>难难难难</t>
   </si>
 </sst>
 </file>
@@ -138,8 +150,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -160,9 +172,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -174,21 +207,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -197,93 +215,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -297,7 +233,83 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,37 +324,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,145 +486,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,15 +527,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -535,6 +538,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,145 +620,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1080,10 +1092,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
@@ -1288,6 +1300,23 @@
         <v>38</v>
       </c>
     </row>
+    <row r="10" customHeight="1" spans="3:7">
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:A7"/>

--- a/ysyx学习记录.xlsx
+++ b/ysyx学习记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="9918" windowHeight="7440"/>
+    <workbookView windowWidth="19334" windowHeight="7600"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
   <si>
     <t>周数</t>
   </si>
@@ -37,6 +37,9 @@
     <t>感想</t>
   </si>
   <si>
+    <t>备注</t>
+  </si>
+  <si>
     <t>第一周</t>
   </si>
   <si>
@@ -143,6 +146,21 @@
   </si>
   <si>
     <t>难难难难</t>
+  </si>
+  <si>
+    <t>生病休息</t>
+  </si>
+  <si>
+    <t>PA1</t>
+  </si>
+  <si>
+    <t>PA1(阶段1、阶段2部分)</t>
+  </si>
+  <si>
+    <t>在完成阶段1时对地址映射的认识不够，导致在扫描内存时会出现段错误的情况，最后发现是没有排除小于0x80000000的情况。阶段2也是有些难度，对C下的正则表达式匹配不够熟悉。</t>
+  </si>
+  <si>
+    <t>终于对寄存器和内存有些认识了！</t>
   </si>
 </sst>
 </file>
@@ -150,10 +168,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -172,6 +190,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -179,23 +219,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -207,109 +249,85 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,31 +342,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,151 +516,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,21 +541,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,11 +586,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,11 +608,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,145 +638,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1092,13 +1110,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="6.97297297297297" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
@@ -1109,7 +1127,7 @@
     <col min="7" max="7" width="19.5765765765766" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:7">
+    <row r="1" customHeight="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1130,29 +1148,32 @@
       </c>
       <c r="G1" t="s">
         <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2">
         <v>45349</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
@@ -1161,19 +1182,19 @@
         <v>45350</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
@@ -1182,19 +1203,19 @@
         <v>45351</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
@@ -1203,19 +1224,19 @@
         <v>45352</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
@@ -1224,19 +1245,19 @@
         <v>45353</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
@@ -1245,39 +1266,39 @@
         <v>45354</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" s="2">
         <v>45355</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:7">
@@ -1285,41 +1306,85 @@
         <v>45356</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="3:7">
+    <row r="10" customHeight="1" spans="2:7">
+      <c r="B10" s="2">
+        <v>45357</v>
+      </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="2:8">
+      <c r="B11" s="2">
+        <v>45358</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="2:8">
+      <c r="B12" s="2">
+        <v>45359</v>
+      </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:8">
+      <c r="B13" s="2">
+        <v>45360</v>
+      </c>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:7">
+      <c r="B14" s="2">
+        <v>45361</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:A7"/>
+    <mergeCell ref="H11:H13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/ysyx学习记录.xlsx
+++ b/ysyx学习记录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
   <si>
     <t>周数</t>
   </si>
@@ -161,6 +161,42 @@
   </si>
   <si>
     <t>终于对寄存器和内存有些认识了！</t>
+  </si>
+  <si>
+    <t>第三周</t>
+  </si>
+  <si>
+    <t>PA1（阶段2）</t>
+  </si>
+  <si>
+    <t>在完成表达式求值时，思路是很容易想到的，但是在测试代码时会出现很多问题，比如除0错误、运算符号处理顺序有问题、tokens中字符串未清空等问题，排除bug真是很花时间</t>
+  </si>
+  <si>
+    <t>怎么会有怎么多bug！！</t>
+  </si>
+  <si>
+    <t>PA2</t>
+  </si>
+  <si>
+    <t>PA1（阶段3）</t>
+  </si>
+  <si>
+    <t>在实现复杂表达式求值时，由于昨天简单表达式求值中运算符优先级的比对比较简单，所以代码也没有写判断优先级的函数，但是在今天运算符变多了之后，原来的代码就显得繁重了，所以重新写了个判断表达式的函数</t>
+  </si>
+  <si>
+    <t>完成表达式求值之后，监视器的功能实现就简单多了，终于把PA1做完了！！</t>
+  </si>
+  <si>
+    <t>搭建verilator</t>
+  </si>
+  <si>
+    <t>源码安装verilator、完成实例、完成波形图输出</t>
+  </si>
+  <si>
+    <t>编译verilator时出现了一些问题，但都是依赖包的问题，通过STFW都能解决</t>
+  </si>
+  <si>
+    <t>verilator对我来说是个全新的东西，语法是一窍不通呀！！！</t>
   </si>
 </sst>
 </file>
@@ -168,9 +204,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -183,21 +219,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -211,8 +301,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,27 +316,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -257,77 +355,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,181 +384,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,6 +569,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -549,7 +605,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,11 +640,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,179 +669,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1110,10 +1146,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="7"/>
@@ -1282,7 +1318,7 @@
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="2">
@@ -1301,7 +1337,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="2:7">
+    <row r="9" customHeight="1" spans="1:7">
+      <c r="A9" s="1"/>
       <c r="B9" s="2">
         <v>45356</v>
       </c>
@@ -1321,7 +1358,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="2:7">
+    <row r="10" customHeight="1" spans="1:7">
+      <c r="A10" s="1"/>
       <c r="B10" s="2">
         <v>45357</v>
       </c>
@@ -1341,7 +1379,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="2:8">
+    <row r="11" customHeight="1" spans="1:8">
+      <c r="A11" s="1"/>
       <c r="B11" s="2">
         <v>45358</v>
       </c>
@@ -1349,19 +1388,22 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="2:8">
+    <row r="12" customHeight="1" spans="1:8">
+      <c r="A12" s="1"/>
       <c r="B12" s="2">
         <v>45359</v>
       </c>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" customHeight="1" spans="2:8">
+    <row r="13" customHeight="1" spans="1:8">
+      <c r="A13" s="1"/>
       <c r="B13" s="2">
         <v>45360</v>
       </c>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" customHeight="1" spans="2:7">
+    <row r="14" customHeight="1" spans="1:7">
+      <c r="A14" s="1"/>
       <c r="B14" s="2">
         <v>45361</v>
       </c>
@@ -1381,9 +1423,73 @@
         <v>48</v>
       </c>
     </row>
+    <row r="15" customHeight="1" spans="1:7">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="2">
+        <v>45362</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="2:7">
+      <c r="B16" s="2">
+        <v>45363</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="2:7">
+      <c r="B17" s="2">
+        <v>45364</v>
+      </c>
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A14"/>
     <mergeCell ref="H11:H13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ysyx学习记录.xlsx
+++ b/ysyx学习记录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
   <si>
     <t>周数</t>
   </si>
@@ -64,7 +64,7 @@
     <t>ex0-ex8</t>
   </si>
   <si>
-    <t>在ex4中需要安装valgrind，本人OS为manjaro，源码安装的valgrind在运行上出现了问题，初步怀疑是glibc版本过新以至于不兼容，尝试过降级glibc，结果以及不能使用，在上面花费了大量时间，故先告一段落。后续的实验都是在ubuntu虚拟机上完成，结果都非常顺利。</t>
+    <t>在ex4中需要安装valgrind，本人OS为manjaro，源码安装的valgrind在运行上出现了问题，初步怀疑是glibc版本过新以至于不兼容，尝试过降级glibc，依旧不能使用，在上面花费了大量时间，故先告一段落。后续的实验都是在ubuntu虚拟机上完成，结果都非常顺利。</t>
   </si>
   <si>
     <t>对arch系linux排错不够熟练，希望之后解决valgrind的bug</t>
@@ -197,6 +197,15 @@
   </si>
   <si>
     <t>verilator对我来说是个全新的东西，语法是一窍不通呀！！！</t>
+  </si>
+  <si>
+    <t>完成接入NVBoard</t>
+  </si>
+  <si>
+    <t>在安装NVBoard时出现了找不到libjxl的情况，但是经过检查，系统中已经安装了libjxl，通过STFW发现是libjxl版本过低的原因，将系统升级之后问题解决。在接入nvboard后，发现画面总是出不来，最后才知道是运行时间太短了的原因。</t>
+  </si>
+  <si>
+    <t>每天不是在解决bug，就是在遇见bug的路上</t>
   </si>
 </sst>
 </file>
@@ -205,9 +214,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -219,24 +228,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -248,51 +294,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -310,12 +311,51 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
@@ -323,47 +363,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -390,25 +399,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,31 +537,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,109 +561,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,11 +583,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,24 +610,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,6 +629,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -639,183 +678,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1146,10 +1155,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="7"/>
@@ -1486,6 +1495,26 @@
         <v>60</v>
       </c>
     </row>
+    <row r="18" customHeight="1" spans="2:7">
+      <c r="B18" s="2">
+        <v>45365</v>
+      </c>
+      <c r="C18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:A7"/>

--- a/ysyx学习记录.xlsx
+++ b/ysyx学习记录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="78">
   <si>
     <t>周数</t>
   </si>
@@ -127,7 +127,7 @@
     <t>4h</t>
   </si>
   <si>
-    <t>part2-part4</t>
+    <t>计算机教育中缺失的一课（3、4）</t>
   </si>
   <si>
     <t>part4中对shell命令下的数据处理还不够熟悉，需要查看习题答疑才有思路</t>
@@ -206,6 +206,48 @@
   </si>
   <si>
     <t>每天不是在解决bug，就是在遇见bug的路上</t>
+  </si>
+  <si>
+    <t>休息</t>
+  </si>
+  <si>
+    <t>学习verilog</t>
+  </si>
+  <si>
+    <t>刷HDLbits（basic、vector）</t>
+  </si>
+  <si>
+    <t>对verilog的语法熟悉了一些</t>
+  </si>
+  <si>
+    <t>刷HDLbits（module、procedures）</t>
+  </si>
+  <si>
+    <t>感觉有很多来自C的熟悉元素</t>
+  </si>
+  <si>
+    <t>第四周</t>
+  </si>
+  <si>
+    <t>刷HDLbits（more verilog features，basic gates，multiplexers，arithmetic circuits）</t>
+  </si>
+  <si>
+    <t>现在对基本逻辑、加法器、多路复用器熟悉不少</t>
+  </si>
+  <si>
+    <t>刷HDLbits（Latches and Flip-Flops，Counters，shift Registers）</t>
+  </si>
+  <si>
+    <t>时序逻辑好懵</t>
+  </si>
+  <si>
+    <t>刷HDLbits（shift Registers部分，finite state machines部分）</t>
+  </si>
+  <si>
+    <t>有限状态机一开始没有思路，后面了解了工作方式才略微懂一点</t>
+  </si>
+  <si>
+    <t>时序逻辑好懵+1</t>
   </si>
 </sst>
 </file>
@@ -213,10 +255,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -241,10 +283,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -257,9 +314,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -267,6 +332,22 @@
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -278,11 +359,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -295,88 +398,27 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -393,31 +435,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,144 +610,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,45 +633,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -644,11 +647,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -678,147 +687,180 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1155,10 +1197,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="E11" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="7"/>
@@ -1433,7 +1475,7 @@
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:7">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B15" s="2">
@@ -1455,7 +1497,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="2:7">
+    <row r="16" customHeight="1" spans="1:7">
+      <c r="A16" s="1"/>
       <c r="B16" s="2">
         <v>45363</v>
       </c>
@@ -1475,7 +1518,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="2:7">
+    <row r="17" customHeight="1" spans="1:7">
+      <c r="A17" s="1"/>
       <c r="B17" s="2">
         <v>45364</v>
       </c>
@@ -1495,7 +1539,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="2:7">
+    <row r="18" customHeight="1" spans="1:7">
+      <c r="A18" s="1"/>
       <c r="B18" s="2">
         <v>45365</v>
       </c>
@@ -1515,10 +1560,125 @@
         <v>63</v>
       </c>
     </row>
+    <row r="19" customHeight="1" spans="1:8">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2">
+        <v>45366</v>
+      </c>
+      <c r="H19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:7">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2">
+        <v>45367</v>
+      </c>
+      <c r="C20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:7">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2">
+        <v>45368</v>
+      </c>
+      <c r="C21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:7">
+      <c r="A22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="2">
+        <v>45369</v>
+      </c>
+      <c r="C22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="2:7">
+      <c r="B23" s="2">
+        <v>45370</v>
+      </c>
+      <c r="C23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="2:7">
+      <c r="B24" s="2">
+        <v>45371</v>
+      </c>
+      <c r="C24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" t="s">
+        <v>76</v>
+      </c>
+      <c r="G24" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A15:A21"/>
     <mergeCell ref="H11:H13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
